--- a/ExcelCore/sample.xlsx
+++ b/ExcelCore/sample.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nhatv\Work\TechnoStar\ExcelCore\ExcelCore\bin\Debug\net5.0\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nhatv\Work\TechnoStar\ExcelCore\ExcelCore\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA5C129F-A0A1-4541-8627-05673C9E2C60}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CCBEDAD2-9A47-4918-9B38-967454F7881C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -576,19 +576,19 @@
           </c:errBars>
           <c:xVal>
             <c:numRef>
-              <c:f>MENR!$A$2:$A$2233</c:f>
+              <c:f>MENR!$A$2:$A$100000</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy\ h:mm</c:formatCode>
-                <c:ptCount val="2232"/>
+                <c:ptCount val="99999"/>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>MENR!$C$2:$C$2233</c:f>
+              <c:f>MENR!$C$2:$C$100000</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="2232"/>
+                <c:ptCount val="99999"/>
               </c:numCache>
             </c:numRef>
           </c:yVal>
@@ -921,19 +921,19 @@
           </c:errBars>
           <c:xVal>
             <c:numRef>
-              <c:f>MENR!$A$2:$A$2233</c:f>
+              <c:f>MENR!$A$2:$A$100000</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy\ h:mm</c:formatCode>
-                <c:ptCount val="2232"/>
+                <c:ptCount val="99999"/>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>MENR!$X$2:$X$2233</c:f>
+              <c:f>MENR!$X$2:$X$100000</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="2232"/>
+                <c:ptCount val="99999"/>
               </c:numCache>
             </c:numRef>
           </c:yVal>
@@ -1266,19 +1266,19 @@
           </c:errBars>
           <c:xVal>
             <c:numRef>
-              <c:f>MENR!$A$2:$A$2233</c:f>
+              <c:f>MENR!$A$2:$A$100000</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy\ h:mm</c:formatCode>
-                <c:ptCount val="2232"/>
+                <c:ptCount val="99999"/>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>MENR!$Y$2:$Y$2233</c:f>
+              <c:f>MENR!$Y$2:$Y$100000</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="2232"/>
+                <c:ptCount val="99999"/>
               </c:numCache>
             </c:numRef>
           </c:yVal>
@@ -1611,19 +1611,19 @@
           </c:errBars>
           <c:xVal>
             <c:numRef>
-              <c:f>MENR!$A$2:$A$2233</c:f>
+              <c:f>MENR!$A$2:$A$100000</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy\ h:mm</c:formatCode>
-                <c:ptCount val="2232"/>
+                <c:ptCount val="99999"/>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>MENR!$Z$2:$Z$2233</c:f>
+              <c:f>MENR!$Z$2:$Z$100000</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="2232"/>
+                <c:ptCount val="99999"/>
               </c:numCache>
             </c:numRef>
           </c:yVal>
@@ -1956,19 +1956,19 @@
           </c:errBars>
           <c:xVal>
             <c:numRef>
-              <c:f>MENR!$A$2:$A$2233</c:f>
+              <c:f>MENR!$A$2:$A$100000</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy\ h:mm</c:formatCode>
-                <c:ptCount val="2232"/>
+                <c:ptCount val="99999"/>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>MENR!$AA$2:$AA$2233</c:f>
+              <c:f>MENR!$AA$2:$AA$100000</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="2232"/>
+                <c:ptCount val="99999"/>
               </c:numCache>
             </c:numRef>
           </c:yVal>
@@ -2301,19 +2301,19 @@
           </c:errBars>
           <c:xVal>
             <c:numRef>
-              <c:f>MENR!$A$2:$A$2233</c:f>
+              <c:f>MENR!$A$2:$A$100000</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy\ h:mm</c:formatCode>
-                <c:ptCount val="2232"/>
+                <c:ptCount val="99999"/>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>MENR!$AB$2:$AB$2233</c:f>
+              <c:f>MENR!$AB$2:$AB$100000</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="2232"/>
+                <c:ptCount val="99999"/>
               </c:numCache>
             </c:numRef>
           </c:yVal>
@@ -2646,19 +2646,19 @@
           </c:errBars>
           <c:xVal>
             <c:numRef>
-              <c:f>MENR!$A$2:$A$2233</c:f>
+              <c:f>MENR!$A$2:$A$100000</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy\ h:mm</c:formatCode>
-                <c:ptCount val="2232"/>
+                <c:ptCount val="99999"/>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>MENR!$AC$2:$AC$2233</c:f>
+              <c:f>MENR!$AC$2:$AC$100000</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="2232"/>
+                <c:ptCount val="99999"/>
               </c:numCache>
             </c:numRef>
           </c:yVal>
@@ -2991,19 +2991,19 @@
           </c:errBars>
           <c:xVal>
             <c:numRef>
-              <c:f>MENR!$A$2:$A$2233</c:f>
+              <c:f>MENR!$A$2:$A$100000</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy\ h:mm</c:formatCode>
-                <c:ptCount val="2232"/>
+                <c:ptCount val="99999"/>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>MENR!$AD$2:$AD$2233</c:f>
+              <c:f>MENR!$AD$2:$AD$100000</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="2232"/>
+                <c:ptCount val="99999"/>
               </c:numCache>
             </c:numRef>
           </c:yVal>
@@ -3336,19 +3336,19 @@
           </c:errBars>
           <c:xVal>
             <c:numRef>
-              <c:f>MENR!$A$2:$A$2233</c:f>
+              <c:f>MENR!$A$2:$A$100000</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy\ h:mm</c:formatCode>
-                <c:ptCount val="2232"/>
+                <c:ptCount val="99999"/>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>MENR!$AE$2:$AE$2233</c:f>
+              <c:f>MENR!$AE$2:$AE$100000</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="2232"/>
+                <c:ptCount val="99999"/>
               </c:numCache>
             </c:numRef>
           </c:yVal>
@@ -3681,19 +3681,19 @@
           </c:errBars>
           <c:xVal>
             <c:numRef>
-              <c:f>MENR!$A$2:$A$2233</c:f>
+              <c:f>MENR!$A$2:$A$100000</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy\ h:mm</c:formatCode>
-                <c:ptCount val="2232"/>
+                <c:ptCount val="99999"/>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>MENR!$AF$2:$AF$2233</c:f>
+              <c:f>MENR!$AF$2:$AF$100000</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="2232"/>
+                <c:ptCount val="99999"/>
               </c:numCache>
             </c:numRef>
           </c:yVal>
@@ -4026,19 +4026,19 @@
           </c:errBars>
           <c:xVal>
             <c:numRef>
-              <c:f>MENR!$A$2:$A$2233</c:f>
+              <c:f>MENR!$A$2:$A$100000</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy\ h:mm</c:formatCode>
-                <c:ptCount val="2232"/>
+                <c:ptCount val="99999"/>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>MENR!$AG$2:$AG$2233</c:f>
+              <c:f>MENR!$AG$2:$AG$100000</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="2232"/>
+                <c:ptCount val="99999"/>
               </c:numCache>
             </c:numRef>
           </c:yVal>
@@ -4371,19 +4371,19 @@
           </c:errBars>
           <c:xVal>
             <c:numRef>
-              <c:f>MENR!$A$2:$A$2233</c:f>
+              <c:f>MENR!$A$2:$A$100000</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy\ h:mm</c:formatCode>
-                <c:ptCount val="2232"/>
+                <c:ptCount val="99999"/>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>MENR!$D$2:$D$2233</c:f>
+              <c:f>MENR!$D$2:$D$100000</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="2232"/>
+                <c:ptCount val="99999"/>
               </c:numCache>
             </c:numRef>
           </c:yVal>
@@ -4716,19 +4716,19 @@
           </c:errBars>
           <c:xVal>
             <c:numRef>
-              <c:f>MENR!$A$2:$A$2233</c:f>
+              <c:f>MENR!$A$2:$A$100000</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy\ h:mm</c:formatCode>
-                <c:ptCount val="2232"/>
+                <c:ptCount val="99999"/>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>MENR!$AH$2:$AH$2233</c:f>
+              <c:f>MENR!$AH$2:$AH$100000</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="2232"/>
+                <c:ptCount val="99999"/>
               </c:numCache>
             </c:numRef>
           </c:yVal>
@@ -5061,19 +5061,19 @@
           </c:errBars>
           <c:xVal>
             <c:numRef>
-              <c:f>MENR!$A$2:$A$2233</c:f>
+              <c:f>MENR!$A$2:$A$100000</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy\ h:mm</c:formatCode>
-                <c:ptCount val="2232"/>
+                <c:ptCount val="99999"/>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>MENR!$AI$2:$AI$2233</c:f>
+              <c:f>MENR!$AI$2:$AI$100000</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="2232"/>
+                <c:ptCount val="99999"/>
               </c:numCache>
             </c:numRef>
           </c:yVal>
@@ -5406,19 +5406,19 @@
           </c:errBars>
           <c:xVal>
             <c:numRef>
-              <c:f>MENR!$A$2:$A$2233</c:f>
+              <c:f>MENR!$A$2:$A$100000</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy\ h:mm</c:formatCode>
-                <c:ptCount val="2232"/>
+                <c:ptCount val="99999"/>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>MENR!$AJ$2:$AJ$2233</c:f>
+              <c:f>MENR!$AJ$2:$AJ$100000</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="2232"/>
+                <c:ptCount val="99999"/>
               </c:numCache>
             </c:numRef>
           </c:yVal>
@@ -5751,19 +5751,19 @@
           </c:errBars>
           <c:xVal>
             <c:numRef>
-              <c:f>MENR!$A$2:$A$2233</c:f>
+              <c:f>MENR!$A$2:$A$100000</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy\ h:mm</c:formatCode>
-                <c:ptCount val="2232"/>
+                <c:ptCount val="99999"/>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>MENR!$AK$2:$AK$2233</c:f>
+              <c:f>MENR!$AK$2:$AK$100000</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="2232"/>
+                <c:ptCount val="99999"/>
               </c:numCache>
             </c:numRef>
           </c:yVal>
@@ -6096,19 +6096,19 @@
           </c:errBars>
           <c:xVal>
             <c:numRef>
-              <c:f>MENR!$A$2:$A$2233</c:f>
+              <c:f>MENR!$A$2:$A$100000</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy\ h:mm</c:formatCode>
-                <c:ptCount val="2232"/>
+                <c:ptCount val="99999"/>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>MENR!$AL$2:$AL$2233</c:f>
+              <c:f>MENR!$AL$2:$AL$100000</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="2232"/>
+                <c:ptCount val="99999"/>
               </c:numCache>
             </c:numRef>
           </c:yVal>
@@ -6441,19 +6441,19 @@
           </c:errBars>
           <c:xVal>
             <c:numRef>
-              <c:f>MENR!$A$2:$A$2233</c:f>
+              <c:f>MENR!$A$2:$A$100000</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy\ h:mm</c:formatCode>
-                <c:ptCount val="2232"/>
+                <c:ptCount val="99999"/>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>MENR!$AM$2:$AM$2233</c:f>
+              <c:f>MENR!$AM$2:$AM$100000</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="2232"/>
+                <c:ptCount val="99999"/>
               </c:numCache>
             </c:numRef>
           </c:yVal>
@@ -6786,19 +6786,19 @@
           </c:errBars>
           <c:xVal>
             <c:numRef>
-              <c:f>MENR!$A$2:$A$2233</c:f>
+              <c:f>MENR!$A$2:$A$100000</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy\ h:mm</c:formatCode>
-                <c:ptCount val="2232"/>
+                <c:ptCount val="99999"/>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>MENR!$AN$2:$AN$2233</c:f>
+              <c:f>MENR!$AN$2:$AN$100000</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="2232"/>
+                <c:ptCount val="99999"/>
               </c:numCache>
             </c:numRef>
           </c:yVal>
@@ -7131,19 +7131,19 @@
           </c:errBars>
           <c:xVal>
             <c:numRef>
-              <c:f>MENR!$A$2:$A$2233</c:f>
+              <c:f>MENR!$A$2:$A$100000</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy\ h:mm</c:formatCode>
-                <c:ptCount val="2232"/>
+                <c:ptCount val="99999"/>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>MENR!$AO$2:$AO$2233</c:f>
+              <c:f>MENR!$AO$2:$AO$100000</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="2232"/>
+                <c:ptCount val="99999"/>
               </c:numCache>
             </c:numRef>
           </c:yVal>
@@ -7476,19 +7476,19 @@
           </c:errBars>
           <c:xVal>
             <c:numRef>
-              <c:f>MENR!$A$2:$A$2233</c:f>
+              <c:f>MENR!$A$2:$A$100000</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy\ h:mm</c:formatCode>
-                <c:ptCount val="2232"/>
+                <c:ptCount val="99999"/>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>MENR!$AP$2:$AP$2233</c:f>
+              <c:f>MENR!$AP$2:$AP$100000</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="2232"/>
+                <c:ptCount val="99999"/>
               </c:numCache>
             </c:numRef>
           </c:yVal>
@@ -7821,19 +7821,19 @@
           </c:errBars>
           <c:xVal>
             <c:numRef>
-              <c:f>MENR!$A$2:$A$2233</c:f>
+              <c:f>MENR!$A$2:$A$100000</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy\ h:mm</c:formatCode>
-                <c:ptCount val="2232"/>
+                <c:ptCount val="99999"/>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>MENR!$E$2:$E$2233</c:f>
+              <c:f>MENR!$E$2:$E$100000</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="2232"/>
+                <c:ptCount val="99999"/>
               </c:numCache>
             </c:numRef>
           </c:yVal>
@@ -8166,19 +8166,19 @@
           </c:errBars>
           <c:xVal>
             <c:numRef>
-              <c:f>MENR!$A$2:$A$2233</c:f>
+              <c:f>MENR!$A$2:$A$100000</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy\ h:mm</c:formatCode>
-                <c:ptCount val="2232"/>
+                <c:ptCount val="99999"/>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>MENR!$Q$2:$Q$2233</c:f>
+              <c:f>MENR!$Q$2:$Q$100000</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="2232"/>
+                <c:ptCount val="99999"/>
               </c:numCache>
             </c:numRef>
           </c:yVal>
@@ -8511,19 +8511,19 @@
           </c:errBars>
           <c:xVal>
             <c:numRef>
-              <c:f>MENR!$A$2:$A$2233</c:f>
+              <c:f>MENR!$A$2:$A$100000</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy\ h:mm</c:formatCode>
-                <c:ptCount val="2232"/>
+                <c:ptCount val="99999"/>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>MENR!$F$2:$F$2233</c:f>
+              <c:f>MENR!$F$2:$F$100000</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="2232"/>
+                <c:ptCount val="99999"/>
               </c:numCache>
             </c:numRef>
           </c:yVal>
@@ -8856,19 +8856,19 @@
           </c:errBars>
           <c:xVal>
             <c:numRef>
-              <c:f>MENR!$A$2:$A$2233</c:f>
+              <c:f>MENR!$A$2:$A$100000</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy\ h:mm</c:formatCode>
-                <c:ptCount val="2232"/>
+                <c:ptCount val="99999"/>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>MENR!$G$2:$G$2233</c:f>
+              <c:f>MENR!$G$2:$G$100000</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="2232"/>
+                <c:ptCount val="99999"/>
               </c:numCache>
             </c:numRef>
           </c:yVal>
@@ -9201,19 +9201,19 @@
           </c:errBars>
           <c:xVal>
             <c:numRef>
-              <c:f>MENR!$A$2:$A$2233</c:f>
+              <c:f>MENR!$A$2:$A$100000</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy\ h:mm</c:formatCode>
-                <c:ptCount val="2232"/>
+                <c:ptCount val="99999"/>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>MENR!$H$2:$H$2233</c:f>
+              <c:f>MENR!$H$2:$H$100000</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="2232"/>
+                <c:ptCount val="99999"/>
               </c:numCache>
             </c:numRef>
           </c:yVal>
@@ -9546,19 +9546,19 @@
           </c:errBars>
           <c:xVal>
             <c:numRef>
-              <c:f>MENR!$A$2:$A$2233</c:f>
+              <c:f>MENR!$A$2:$A$100000</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy\ h:mm</c:formatCode>
-                <c:ptCount val="2232"/>
+                <c:ptCount val="99999"/>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>MENR!$I$2:$I$2233</c:f>
+              <c:f>MENR!$I$2:$I$100000</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="2232"/>
+                <c:ptCount val="99999"/>
               </c:numCache>
             </c:numRef>
           </c:yVal>
@@ -9891,19 +9891,19 @@
           </c:errBars>
           <c:xVal>
             <c:numRef>
-              <c:f>MENR!$A$2:$A$2233</c:f>
+              <c:f>MENR!$A$2:$A$100000</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy\ h:mm</c:formatCode>
-                <c:ptCount val="2232"/>
+                <c:ptCount val="99999"/>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>MENR!$J$2:$J$2233</c:f>
+              <c:f>MENR!$J$2:$J$100000</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="2232"/>
+                <c:ptCount val="99999"/>
               </c:numCache>
             </c:numRef>
           </c:yVal>
@@ -10236,19 +10236,19 @@
           </c:errBars>
           <c:xVal>
             <c:numRef>
-              <c:f>MENR!$A$2:$A$2233</c:f>
+              <c:f>MENR!$A$2:$A$100000</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy\ h:mm</c:formatCode>
-                <c:ptCount val="2232"/>
+                <c:ptCount val="99999"/>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>MENR!$K$2:$K$2233</c:f>
+              <c:f>MENR!$K$2:$K$100000</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="2232"/>
+                <c:ptCount val="99999"/>
               </c:numCache>
             </c:numRef>
           </c:yVal>
@@ -10581,19 +10581,19 @@
           </c:errBars>
           <c:xVal>
             <c:numRef>
-              <c:f>MENR!$A$2:$A$2233</c:f>
+              <c:f>MENR!$A$2:$A$100000</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy\ h:mm</c:formatCode>
-                <c:ptCount val="2232"/>
+                <c:ptCount val="99999"/>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>MENR!$L$2:$L$2233</c:f>
+              <c:f>MENR!$L$2:$L$100000</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="2232"/>
+                <c:ptCount val="99999"/>
               </c:numCache>
             </c:numRef>
           </c:yVal>
@@ -10926,19 +10926,19 @@
           </c:errBars>
           <c:xVal>
             <c:numRef>
-              <c:f>MENR!$A$2:$A$2233</c:f>
+              <c:f>MENR!$A$2:$A$100000</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy\ h:mm</c:formatCode>
-                <c:ptCount val="2232"/>
+                <c:ptCount val="99999"/>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>MENR!$M$2:$M$2233</c:f>
+              <c:f>MENR!$M$2:$M$100000</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="2232"/>
+                <c:ptCount val="99999"/>
               </c:numCache>
             </c:numRef>
           </c:yVal>
@@ -11271,19 +11271,19 @@
           </c:errBars>
           <c:xVal>
             <c:numRef>
-              <c:f>MENR!$A$2:$A$2233</c:f>
+              <c:f>MENR!$A$2:$A$100000</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy\ h:mm</c:formatCode>
-                <c:ptCount val="2232"/>
+                <c:ptCount val="99999"/>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>MENR!$N$2:$N$2233</c:f>
+              <c:f>MENR!$N$2:$N$100000</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="2232"/>
+                <c:ptCount val="99999"/>
               </c:numCache>
             </c:numRef>
           </c:yVal>
@@ -11616,19 +11616,19 @@
           </c:errBars>
           <c:xVal>
             <c:numRef>
-              <c:f>MENR!$A$2:$A$2233</c:f>
+              <c:f>MENR!$A$2:$A$100000</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy\ h:mm</c:formatCode>
-                <c:ptCount val="2232"/>
+                <c:ptCount val="99999"/>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>MENR!$O$2:$O$2233</c:f>
+              <c:f>MENR!$O$2:$O$100000</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="2232"/>
+                <c:ptCount val="99999"/>
               </c:numCache>
             </c:numRef>
           </c:yVal>
@@ -11961,19 +11961,19 @@
           </c:errBars>
           <c:xVal>
             <c:numRef>
-              <c:f>MENR!$A$2:$A$2233</c:f>
+              <c:f>MENR!$A$2:$A$100000</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy\ h:mm</c:formatCode>
-                <c:ptCount val="2232"/>
+                <c:ptCount val="99999"/>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>MENR!$R$2:$R$2233</c:f>
+              <c:f>MENR!$R$2:$R$100000</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="2232"/>
+                <c:ptCount val="99999"/>
               </c:numCache>
             </c:numRef>
           </c:yVal>
@@ -12306,19 +12306,19 @@
           </c:errBars>
           <c:xVal>
             <c:numRef>
-              <c:f>MENR!$A$2:$A$2233</c:f>
+              <c:f>MENR!$A$2:$A$100000</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy\ h:mm</c:formatCode>
-                <c:ptCount val="2232"/>
+                <c:ptCount val="99999"/>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>MENR!$P$2:$P$2233</c:f>
+              <c:f>MENR!$P$2:$P$100000</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="2232"/>
+                <c:ptCount val="99999"/>
               </c:numCache>
             </c:numRef>
           </c:yVal>
@@ -12651,19 +12651,19 @@
           </c:errBars>
           <c:xVal>
             <c:numRef>
-              <c:f>MENR!$A$2:$A$2233</c:f>
+              <c:f>MENR!$A$2:$A$100000</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy\ h:mm</c:formatCode>
-                <c:ptCount val="2232"/>
+                <c:ptCount val="99999"/>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>MENR!$S$2:$S$2233</c:f>
+              <c:f>MENR!$S$2:$S$100000</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="2232"/>
+                <c:ptCount val="99999"/>
               </c:numCache>
             </c:numRef>
           </c:yVal>
@@ -12996,19 +12996,19 @@
           </c:errBars>
           <c:xVal>
             <c:numRef>
-              <c:f>MENR!$A$2:$A$2233</c:f>
+              <c:f>MENR!$A$2:$A$100000</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy\ h:mm</c:formatCode>
-                <c:ptCount val="2232"/>
+                <c:ptCount val="99999"/>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>MENR!$T$2:$T$2233</c:f>
+              <c:f>MENR!$T$2:$T$100000</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="2232"/>
+                <c:ptCount val="99999"/>
               </c:numCache>
             </c:numRef>
           </c:yVal>
@@ -13341,19 +13341,19 @@
           </c:errBars>
           <c:xVal>
             <c:numRef>
-              <c:f>MENR!$A$2:$A$2233</c:f>
+              <c:f>MENR!$A$2:$A$100000</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy\ h:mm</c:formatCode>
-                <c:ptCount val="2232"/>
+                <c:ptCount val="99999"/>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>MENR!$U$2:$U$2233</c:f>
+              <c:f>MENR!$U$2:$U$100000</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="2232"/>
+                <c:ptCount val="99999"/>
               </c:numCache>
             </c:numRef>
           </c:yVal>
@@ -13686,19 +13686,19 @@
           </c:errBars>
           <c:xVal>
             <c:numRef>
-              <c:f>MENR!$A$2:$A$2233</c:f>
+              <c:f>MENR!$A$2:$A$100000</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy\ h:mm</c:formatCode>
-                <c:ptCount val="2232"/>
+                <c:ptCount val="99999"/>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>MENR!$V$2:$V$2233</c:f>
+              <c:f>MENR!$V$2:$V$100000</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="2232"/>
+                <c:ptCount val="99999"/>
               </c:numCache>
             </c:numRef>
           </c:yVal>
@@ -14031,19 +14031,19 @@
           </c:errBars>
           <c:xVal>
             <c:numRef>
-              <c:f>MENR!$A$2:$A$2233</c:f>
+              <c:f>MENR!$A$2:$A$100000</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy\ h:mm</c:formatCode>
-                <c:ptCount val="2232"/>
+                <c:ptCount val="99999"/>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>MENR!$W$2:$W$2233</c:f>
+              <c:f>MENR!$W$2:$W$100000</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="2232"/>
+                <c:ptCount val="99999"/>
               </c:numCache>
             </c:numRef>
           </c:yVal>
@@ -38365,9 +38365,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AP1"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
-    </sheetView>
+    <sheetView topLeftCell="T1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
